--- a/artfynd/A 54302-2022 artfynd.xlsx
+++ b/artfynd/A 54302-2022 artfynd.xlsx
@@ -1632,7 +1632,7 @@
         <v>129503734</v>
       </c>
       <c r="B10" t="n">
-        <v>57060</v>
+        <v>57064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>129649435</v>
       </c>
       <c r="B11" t="n">
-        <v>57060</v>
+        <v>57064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>130987948</v>
       </c>
       <c r="B15" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/artfynd/A 54302-2022 artfynd.xlsx
+++ b/artfynd/A 54302-2022 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2336,6 +2336,127 @@
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131221427</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>SV Rankemossen, Stora Rankemossen, Nrk</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>471404</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6543714</v>
+      </c>
+      <c r="S16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Örebro</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Laxå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Närke</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Skagershult</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Färska spårlöpor i snön.</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Therese Steiner</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Therese Steiner</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
